--- a/static/downloads/WorkBook_attandance.xlsx
+++ b/static/downloads/WorkBook_attandance.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,10 +413,7 @@
         <v>Name</v>
       </c>
       <c r="D1" t="str">
-        <v>30/11/2023</v>
-      </c>
-      <c r="E1" t="str">
-        <v>1/12/2023</v>
+        <v>9/12/2023</v>
       </c>
     </row>
     <row r="2">
@@ -432,9 +429,6 @@
       <c r="D2" t="str">
         <v>P</v>
       </c>
-      <c r="E2" t="str">
-        <v>A</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -447,9 +441,6 @@
         <v>VIKKU KUMAR</v>
       </c>
       <c r="D3" t="str">
-        <v>A</v>
-      </c>
-      <c r="E3" t="str">
         <v>P</v>
       </c>
     </row>
@@ -466,9 +457,6 @@
       <c r="D4" t="str">
         <v>P</v>
       </c>
-      <c r="E4" t="str">
-        <v>A</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -481,9 +469,6 @@
         <v>KHUSHI KUMARI</v>
       </c>
       <c r="D5" t="str">
-        <v>P</v>
-      </c>
-      <c r="E5" t="str">
         <v>A</v>
       </c>
     </row>
@@ -500,9 +485,6 @@
       <c r="D6" t="str">
         <v>A</v>
       </c>
-      <c r="E6" t="str">
-        <v>P</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -514,7 +496,7 @@
       <c r="C7" t="str">
         <v>ANKUSH KUMAR</v>
       </c>
-      <c r="E7" t="str">
+      <c r="D7" t="str">
         <v>A</v>
       </c>
     </row>
@@ -531,9 +513,6 @@
       <c r="D8" t="str">
         <v>A</v>
       </c>
-      <c r="E8" t="str">
-        <v>P</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -546,9 +525,6 @@
         <v xml:space="preserve">RIYA KUMARI </v>
       </c>
       <c r="D9" t="str">
-        <v>P</v>
-      </c>
-      <c r="E9" t="str">
         <v>A</v>
       </c>
     </row>
@@ -563,10 +539,7 @@
         <v>PAWAN RAY</v>
       </c>
       <c r="D10" t="str">
-        <v>P</v>
-      </c>
-      <c r="E10" t="str">
-        <v>P</v>
+        <v>A</v>
       </c>
     </row>
     <row r="11">
@@ -580,9 +553,6 @@
         <v>SAMEER RAJ</v>
       </c>
       <c r="D11" t="str">
-        <v>P</v>
-      </c>
-      <c r="E11" t="str">
         <v>A</v>
       </c>
     </row>
@@ -597,9 +567,6 @@
         <v>ANUSHKA RANI</v>
       </c>
       <c r="D12" t="str">
-        <v>P</v>
-      </c>
-      <c r="E12" t="str">
         <v>A</v>
       </c>
     </row>
@@ -614,10 +581,7 @@
         <v xml:space="preserve">ANNU PRIYA </v>
       </c>
       <c r="D13" t="str">
-        <v>P</v>
-      </c>
-      <c r="E13" t="str">
-        <v>P</v>
+        <v>A</v>
       </c>
     </row>
     <row r="14">
@@ -631,9 +595,6 @@
         <v>SANIYA KUMARI</v>
       </c>
       <c r="D14" t="str">
-        <v>P</v>
-      </c>
-      <c r="E14" t="str">
         <v>A</v>
       </c>
     </row>
@@ -648,9 +609,6 @@
         <v xml:space="preserve">AASHISH KUMAR </v>
       </c>
       <c r="D15" t="str">
-        <v>P</v>
-      </c>
-      <c r="E15" t="str">
         <v>A</v>
       </c>
     </row>
@@ -665,10 +623,7 @@
         <v>TANYA KUAMRI</v>
       </c>
       <c r="D16" t="str">
-        <v>P</v>
-      </c>
-      <c r="E16" t="str">
-        <v>P</v>
+        <v>A</v>
       </c>
     </row>
     <row r="17">
@@ -682,9 +637,6 @@
         <v>PRINCE KUMAR</v>
       </c>
       <c r="D17" t="str">
-        <v>P</v>
-      </c>
-      <c r="E17" t="str">
         <v>A</v>
       </c>
     </row>
@@ -699,9 +651,6 @@
         <v>ABHISHEK KUMAR (2nd)</v>
       </c>
       <c r="D18" t="str">
-        <v>P</v>
-      </c>
-      <c r="E18" t="str">
         <v>A</v>
       </c>
     </row>
@@ -716,9 +665,6 @@
         <v>ABHISHEK KUMAR (1st)</v>
       </c>
       <c r="D19" t="str">
-        <v>P</v>
-      </c>
-      <c r="E19" t="str">
         <v>A</v>
       </c>
     </row>
@@ -733,9 +679,6 @@
         <v>ROUSHAN KUMAR</v>
       </c>
       <c r="D20" t="str">
-        <v>P</v>
-      </c>
-      <c r="E20" t="str">
         <v>A</v>
       </c>
     </row>
@@ -750,10 +693,7 @@
         <v>MD. ARSHAD</v>
       </c>
       <c r="D21" t="str">
-        <v>P</v>
-      </c>
-      <c r="E21" t="str">
-        <v>P</v>
+        <v>A</v>
       </c>
     </row>
     <row r="22">
@@ -767,9 +707,6 @@
         <v>KHUSBOO KUMARI</v>
       </c>
       <c r="D22" t="str">
-        <v>P</v>
-      </c>
-      <c r="E22" t="str">
         <v>A</v>
       </c>
     </row>
@@ -784,9 +721,6 @@
         <v>SHIVAM KUMAR</v>
       </c>
       <c r="D23" t="str">
-        <v>P</v>
-      </c>
-      <c r="E23" t="str">
         <v>A</v>
       </c>
     </row>
@@ -801,9 +735,6 @@
         <v>ADITYA RAJ</v>
       </c>
       <c r="D24" t="str">
-        <v>P</v>
-      </c>
-      <c r="E24" t="str">
         <v>A</v>
       </c>
     </row>
@@ -818,9 +749,6 @@
         <v>ANIKET RAJ</v>
       </c>
       <c r="D25" t="str">
-        <v>P</v>
-      </c>
-      <c r="E25" t="str">
         <v>A</v>
       </c>
     </row>
@@ -835,10 +763,7 @@
         <v>ANKITA KUMARI</v>
       </c>
       <c r="D26" t="str">
-        <v>P</v>
-      </c>
-      <c r="E26" t="str">
-        <v>P</v>
+        <v>A</v>
       </c>
     </row>
     <row r="27">
@@ -852,9 +777,6 @@
         <v>ANIKET KUMAR</v>
       </c>
       <c r="D27" t="str">
-        <v>P</v>
-      </c>
-      <c r="E27" t="str">
         <v>A</v>
       </c>
     </row>
@@ -869,9 +791,6 @@
         <v>TANNU PRIYA</v>
       </c>
       <c r="D28" t="str">
-        <v>P</v>
-      </c>
-      <c r="E28" t="str">
         <v>A</v>
       </c>
     </row>
@@ -888,9 +807,6 @@
       <c r="D29" t="str">
         <v>P</v>
       </c>
-      <c r="E29" t="str">
-        <v>P</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -903,15 +819,12 @@
         <v>ANKIT KUMAR (2nd)</v>
       </c>
       <c r="D30" t="str">
-        <v>P</v>
-      </c>
-      <c r="E30" t="str">
         <v>A</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D30"/>
   </ignoredErrors>
 </worksheet>
 </file>